--- a/trunk/Draft/SMS-GATEWAY-GOLF.xlsx
+++ b/trunk/Draft/SMS-GATEWAY-GOLF.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="18975" windowHeight="2775"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="15480" windowHeight="2775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="93">
   <si>
     <t>Response Code</t>
   </si>
@@ -280,6 +280,28 @@
   </si>
   <si>
     <t>Score has successfully added</t>
+  </si>
+  <si>
+    <t>cmd;type;id:xxxxx(5)</t>
+  </si>
+  <si>
+    <t>info;trcourse;id:rwmgn;</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxxxx(10), Top Score (Nama, Match/Score/Avg):
+player1(10), mm1(3)/ss1(3)/vv1(3) 
+player1(10), mm1(3)/ss1(3)/vv1(3)
+player1(10), mm1(3)/ss1(3)/vv1(3)
+</t>
+  </si>
+  <si>
+    <t>Sentul GF, Top Score (Nama, Match/Score/Avg):
+jordan, 21/176/73.2 
+Toni, 21/170/71.9
+Adam, 20/165/67.3</t>
   </si>
 </sst>
 </file>
@@ -501,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -560,6 +582,66 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -577,66 +659,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -645,6 +667,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -959,41 +984,41 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
@@ -1046,38 +1071,38 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="41"/>
     </row>
     <row r="10" spans="1:4" ht="56.25" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:4" ht="53.25" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="43"/>
     </row>
     <row r="12" spans="1:4" ht="32.25" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="54"/>
+      <c r="D12" s="45"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3"/>
@@ -1101,41 +1126,41 @@
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
@@ -1176,38 +1201,38 @@
       <c r="B24" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="47"/>
+      <c r="D24" s="41"/>
     </row>
     <row r="25" spans="1:4" ht="73.5" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="52"/>
+      <c r="D25" s="39"/>
     </row>
     <row r="26" spans="1:4" ht="58.5" customHeight="1">
       <c r="A26" s="5"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="36"/>
+      <c r="D26" s="43"/>
     </row>
     <row r="27" spans="1:4" ht="31.5" customHeight="1">
       <c r="A27" s="5"/>
       <c r="B27" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="54"/>
+      <c r="D27" s="45"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="9"/>
@@ -1219,41 +1244,41 @@
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="42"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="50"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="50"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="37"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
@@ -1294,38 +1319,38 @@
       <c r="B41" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="46" t="s">
+      <c r="C41" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="47"/>
+      <c r="D41" s="41"/>
     </row>
     <row r="42" spans="1:4" ht="80.25" customHeight="1">
       <c r="A42" s="5"/>
       <c r="B42" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="52"/>
+      <c r="D42" s="39"/>
     </row>
     <row r="43" spans="1:4" ht="60" customHeight="1">
       <c r="A43" s="5"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="36"/>
+      <c r="D43" s="43"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="5"/>
       <c r="B44" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="54"/>
+      <c r="D44" s="45"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3"/>
@@ -1343,41 +1368,41 @@
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="39"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="31"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="42"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="34"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="48" t="s">
+      <c r="B50" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="50"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="37"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="48" t="s">
+      <c r="B51" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="49"/>
-      <c r="D51" s="50"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="37"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
@@ -1418,38 +1443,38 @@
       <c r="B55" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="46" t="s">
+      <c r="C55" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="47"/>
+      <c r="D55" s="41"/>
     </row>
     <row r="56" spans="1:4" ht="50.25" customHeight="1">
       <c r="A56" s="5"/>
       <c r="B56" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D56" s="52"/>
+      <c r="D56" s="39"/>
     </row>
     <row r="57" spans="1:4" ht="45.75" customHeight="1">
       <c r="A57" s="5"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="36"/>
+      <c r="D57" s="43"/>
     </row>
     <row r="58" spans="1:4" ht="39.75" customHeight="1">
       <c r="A58" s="5"/>
       <c r="B58" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C58" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="54"/>
+      <c r="D58" s="45"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="3"/>
@@ -1461,41 +1486,41 @@
       <c r="A67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="38"/>
-      <c r="D67" s="39"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="31"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C68" s="41"/>
-      <c r="D68" s="42"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="34"/>
     </row>
     <row r="69" spans="1:4" ht="61.5" customHeight="1">
       <c r="A69" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="44"/>
-      <c r="D69" s="45"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="48"/>
     </row>
     <row r="70" spans="1:4" ht="51.75" customHeight="1">
       <c r="A70" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="44"/>
-      <c r="D70" s="45"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="48"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
@@ -1724,38 +1749,38 @@
       <c r="B93" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C93" s="46" t="s">
+      <c r="C93" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="47"/>
+      <c r="D93" s="41"/>
     </row>
     <row r="94" spans="1:4" ht="36.75" customHeight="1">
       <c r="A94" s="5"/>
       <c r="B94" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="D94" s="36"/>
+      <c r="D94" s="43"/>
     </row>
     <row r="95" spans="1:4" ht="32.25" customHeight="1">
       <c r="A95" s="5"/>
       <c r="B95" s="27"/>
-      <c r="C95" s="35" t="s">
+      <c r="C95" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="D95" s="36"/>
+      <c r="D95" s="43"/>
     </row>
     <row r="96" spans="1:4" ht="27" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D96" s="31"/>
+      <c r="D96" s="51"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="6"/>
@@ -1803,41 +1828,41 @@
       <c r="A105" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B105" s="37" t="s">
+      <c r="B105" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C105" s="38"/>
-      <c r="D105" s="39"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="31"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="40" t="s">
+      <c r="B106" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C106" s="41"/>
-      <c r="D106" s="42"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="34"/>
     </row>
     <row r="107" spans="1:4" ht="39" customHeight="1">
       <c r="A107" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B107" s="43" t="s">
+      <c r="B107" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C107" s="44"/>
-      <c r="D107" s="45"/>
+      <c r="C107" s="47"/>
+      <c r="D107" s="48"/>
     </row>
     <row r="108" spans="1:4" ht="51.75" customHeight="1">
       <c r="A108" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B108" s="43" t="s">
+      <c r="B108" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C108" s="44"/>
-      <c r="D108" s="45"/>
+      <c r="C108" s="47"/>
+      <c r="D108" s="48"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
@@ -1946,58 +1971,58 @@
       <c r="B119" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C119" s="46" t="s">
+      <c r="C119" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D119" s="47"/>
+      <c r="D119" s="41"/>
     </row>
     <row r="120" spans="1:4" ht="36.75" customHeight="1">
       <c r="A120" s="5"/>
       <c r="B120" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C120" s="35" t="s">
+      <c r="C120" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="D120" s="36"/>
+      <c r="D120" s="43"/>
     </row>
     <row r="121" spans="1:4" ht="32.25" customHeight="1">
       <c r="A121" s="5"/>
       <c r="B121" s="27"/>
-      <c r="C121" s="35" t="s">
+      <c r="C121" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D121" s="36"/>
+      <c r="D121" s="43"/>
     </row>
     <row r="122" spans="1:4" ht="27" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C122" s="30" t="s">
+      <c r="C122" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D122" s="31"/>
+      <c r="D122" s="51"/>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B127" s="37" t="s">
+      <c r="B127" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C127" s="38"/>
-      <c r="D127" s="39"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="31"/>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B128" s="40" t="s">
+      <c r="B128" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C128" s="41"/>
-      <c r="D128" s="42"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="34"/>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="3"/>
@@ -2021,59 +2046,22 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="5"/>
-      <c r="B131" s="29" t="s">
+      <c r="B131" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C131" s="30"/>
-      <c r="D131" s="31"/>
+      <c r="C131" s="50"/>
+      <c r="D131" s="51"/>
     </row>
     <row r="132" spans="1:4" ht="49.5" customHeight="1">
       <c r="A132" s="9"/>
-      <c r="B132" s="32" t="s">
+      <c r="B132" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C132" s="33"/>
-      <c r="D132" s="34"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
     <mergeCell ref="B131:D131"/>
     <mergeCell ref="B132:D132"/>
     <mergeCell ref="C94:D94"/>
@@ -2090,6 +2078,43 @@
     <mergeCell ref="B127:D127"/>
     <mergeCell ref="B128:D128"/>
     <mergeCell ref="B129:D129"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2098,12 +2123,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="A1:D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="41"/>
+    </row>
+    <row r="7" spans="1:4" ht="60.75" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="39"/>
+    </row>
+    <row r="8" spans="1:4" ht="60" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="43"/>
+    </row>
+    <row r="9" spans="1:4" ht="37.5" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
